--- a/branches/pt-branch/ValueSet-ConcPres-vs.xlsx
+++ b/branches/pt-branch/ValueSet-ConcPres-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/pt-branch/ValueSet-ConcPres-vs.xlsx
+++ b/branches/pt-branch/ValueSet-ConcPres-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
